--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3452,28 +3452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3392.42422368211</v>
+        <v>3526.57583043257</v>
       </c>
       <c r="AB2" t="n">
-        <v>4641.664486036178</v>
+        <v>4825.216632743362</v>
       </c>
       <c r="AC2" t="n">
-        <v>4198.670542105732</v>
+        <v>4364.704729548231</v>
       </c>
       <c r="AD2" t="n">
-        <v>3392424.22368211</v>
+        <v>3526575.83043257</v>
       </c>
       <c r="AE2" t="n">
-        <v>4641664.486036179</v>
+        <v>4825216.632743362</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.048201876724591e-07</v>
+        <v>1.304101879289238e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.56087239583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4198670.542105732</v>
+        <v>4364704.729548231</v>
       </c>
     </row>
     <row r="3">
@@ -3558,28 +3558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1594.995978604132</v>
+        <v>1680.36518289988</v>
       </c>
       <c r="AB3" t="n">
-        <v>2182.343864182549</v>
+        <v>2299.149775723477</v>
       </c>
       <c r="AC3" t="n">
-        <v>1974.064028723816</v>
+        <v>2079.722148005404</v>
       </c>
       <c r="AD3" t="n">
-        <v>1594995.978604132</v>
+        <v>1680365.18289988</v>
       </c>
       <c r="AE3" t="n">
-        <v>2182343.864182549</v>
+        <v>2299149.775723476</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.112549656418734e-06</v>
+        <v>2.058508145928011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.65885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1974064.028723816</v>
+        <v>2079722.148005404</v>
       </c>
     </row>
     <row r="4">
@@ -3664,28 +3664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1275.473858616607</v>
+        <v>1360.672381203211</v>
       </c>
       <c r="AB4" t="n">
-        <v>1745.159603294551</v>
+        <v>1861.731980591084</v>
       </c>
       <c r="AC4" t="n">
-        <v>1578.604020103005</v>
+        <v>1684.050893320716</v>
       </c>
       <c r="AD4" t="n">
-        <v>1275473.858616607</v>
+        <v>1360672.381203211</v>
       </c>
       <c r="AE4" t="n">
-        <v>1745159.603294551</v>
+        <v>1861731.980591084</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.269964789074154e-06</v>
+        <v>2.349767354893656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1578604.020103005</v>
+        <v>1684050.893320716</v>
       </c>
     </row>
     <row r="5">
@@ -3770,28 +3770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1145.238071250819</v>
+        <v>1218.241082732296</v>
       </c>
       <c r="AB5" t="n">
-        <v>1566.965253423245</v>
+        <v>1666.851194397765</v>
       </c>
       <c r="AC5" t="n">
-        <v>1417.416288886076</v>
+        <v>1507.769255844786</v>
       </c>
       <c r="AD5" t="n">
-        <v>1145238.071250819</v>
+        <v>1218241.082732296</v>
       </c>
       <c r="AE5" t="n">
-        <v>1566965.253423245</v>
+        <v>1666851.194397765</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.353807487250054e-06</v>
+        <v>2.504898297747244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.2255859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1417416.288886076</v>
+        <v>1507769.255844786</v>
       </c>
     </row>
     <row r="6">
@@ -3876,28 +3876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1056.097007457624</v>
+        <v>1129.185270285121</v>
       </c>
       <c r="AB6" t="n">
-        <v>1444.998517315213</v>
+        <v>1545.001102942382</v>
       </c>
       <c r="AC6" t="n">
-        <v>1307.089886890804</v>
+        <v>1397.548366100227</v>
       </c>
       <c r="AD6" t="n">
-        <v>1056097.007457624</v>
+        <v>1129185.270285121</v>
       </c>
       <c r="AE6" t="n">
-        <v>1444998.517315213</v>
+        <v>1545001.102942382</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.404972073664745e-06</v>
+        <v>2.599566178241415e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.8154296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1307089.886890804</v>
+        <v>1397548.366100227</v>
       </c>
     </row>
     <row r="7">
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>993.3726704023989</v>
+        <v>1054.436014325361</v>
       </c>
       <c r="AB7" t="n">
-        <v>1359.176312153802</v>
+        <v>1442.725873233805</v>
       </c>
       <c r="AC7" t="n">
-        <v>1229.458432537778</v>
+        <v>1305.034140770851</v>
       </c>
       <c r="AD7" t="n">
-        <v>993372.6704023988</v>
+        <v>1054436.014325361</v>
       </c>
       <c r="AE7" t="n">
-        <v>1359176.312153802</v>
+        <v>1442725.873233805</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.443625611576575e-06</v>
+        <v>2.671085343432268e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.52734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1229458.432537778</v>
+        <v>1305034.140770851</v>
       </c>
     </row>
     <row r="8">
@@ -4088,28 +4088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>944.9263635671198</v>
+        <v>1005.81911528949</v>
       </c>
       <c r="AB8" t="n">
-        <v>1292.889937841559</v>
+        <v>1376.206087146715</v>
       </c>
       <c r="AC8" t="n">
-        <v>1169.498336756384</v>
+        <v>1244.862909706806</v>
       </c>
       <c r="AD8" t="n">
-        <v>944926.3635671198</v>
+        <v>1005819.11528949</v>
       </c>
       <c r="AE8" t="n">
-        <v>1292889.937841559</v>
+        <v>1376206.087146715</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.469488002884731e-06</v>
+        <v>2.718937538499577e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.341796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1169498.336756384</v>
+        <v>1244862.909706806</v>
       </c>
     </row>
     <row r="9">
@@ -4194,28 +4194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>907.2512944227381</v>
+        <v>968.1440461451083</v>
       </c>
       <c r="AB9" t="n">
-        <v>1241.341246131471</v>
+        <v>1324.657395436627</v>
       </c>
       <c r="AC9" t="n">
-        <v>1122.869379834064</v>
+        <v>1198.233952784486</v>
       </c>
       <c r="AD9" t="n">
-        <v>907251.294422738</v>
+        <v>968144.0461451083</v>
       </c>
       <c r="AE9" t="n">
-        <v>1241341.246131471</v>
+        <v>1324657.395436627</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.488814771840646e-06</v>
+        <v>2.754697121095004e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.20670572916667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1122869.379834064</v>
+        <v>1198233.952784486</v>
       </c>
     </row>
     <row r="10">
@@ -4300,28 +4300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>892.2541452334508</v>
+        <v>953.1468969558209</v>
       </c>
       <c r="AB10" t="n">
-        <v>1220.821484983161</v>
+        <v>1304.137634288317</v>
       </c>
       <c r="AC10" t="n">
-        <v>1104.307995890083</v>
+        <v>1179.672568840505</v>
       </c>
       <c r="AD10" t="n">
-        <v>892254.1452334508</v>
+        <v>953146.896955821</v>
       </c>
       <c r="AE10" t="n">
-        <v>1220821.484983161</v>
+        <v>1304137.634288317</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.495350394192887e-06</v>
+        <v>2.766789733566887e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.16276041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1104307.995890083</v>
+        <v>1179672.568840505</v>
       </c>
     </row>
     <row r="11">
@@ -4406,28 +4406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>892.5612536224712</v>
+        <v>953.4540053448414</v>
       </c>
       <c r="AB11" t="n">
-        <v>1221.241684229685</v>
+        <v>1304.557833534841</v>
       </c>
       <c r="AC11" t="n">
-        <v>1104.688091910272</v>
+        <v>1180.052664860694</v>
       </c>
       <c r="AD11" t="n">
-        <v>892561.2536224712</v>
+        <v>953454.0053448414</v>
       </c>
       <c r="AE11" t="n">
-        <v>1221241.684229685</v>
+        <v>1304557.833534841</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.496750884696939e-06</v>
+        <v>2.769381007668005e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.15299479166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1104688.091910272</v>
+        <v>1180052.664860694</v>
       </c>
     </row>
   </sheetData>
@@ -4703,28 +4703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2340.857640944257</v>
+        <v>2446.645798792691</v>
       </c>
       <c r="AB2" t="n">
-        <v>3202.864695690707</v>
+        <v>3347.608720303084</v>
       </c>
       <c r="AC2" t="n">
-        <v>2897.187784382699</v>
+        <v>3028.117642435579</v>
       </c>
       <c r="AD2" t="n">
-        <v>2340857.640944256</v>
+        <v>2446645.798792691</v>
       </c>
       <c r="AE2" t="n">
-        <v>3202864.695690707</v>
+        <v>3347608.720303084</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.661819520782965e-07</v>
+        <v>1.651076480599544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.1494140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2897187.784382699</v>
+        <v>3028117.642435579</v>
       </c>
     </row>
     <row r="3">
@@ -4809,28 +4809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1269.237836321911</v>
+        <v>1351.49848039636</v>
       </c>
       <c r="AB3" t="n">
-        <v>1736.627202477062</v>
+        <v>1849.179844783212</v>
       </c>
       <c r="AC3" t="n">
-        <v>1570.885939644237</v>
+        <v>1672.696715737314</v>
       </c>
       <c r="AD3" t="n">
-        <v>1269237.836321911</v>
+        <v>1351498.48039636</v>
       </c>
       <c r="AE3" t="n">
-        <v>1736627.202477062</v>
+        <v>1849179.844783212</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.244701919762824e-06</v>
+        <v>2.372593956900794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.63020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1570885.939644237</v>
+        <v>1672696.715737314</v>
       </c>
     </row>
     <row r="4">
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1050.058241942348</v>
+        <v>1120.469922538059</v>
       </c>
       <c r="AB4" t="n">
-        <v>1436.73601192568</v>
+        <v>1533.076379660845</v>
       </c>
       <c r="AC4" t="n">
-        <v>1299.61594341915</v>
+        <v>1386.761721672226</v>
       </c>
       <c r="AD4" t="n">
-        <v>1050058.241942348</v>
+        <v>1120469.922538059</v>
       </c>
       <c r="AE4" t="n">
-        <v>1436736.01192568</v>
+        <v>1533076.379660845</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385813854640878e-06</v>
+        <v>2.64157508292175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.34440104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1299615.94341915</v>
+        <v>1386761.721672226</v>
       </c>
     </row>
     <row r="5">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>935.1316965615989</v>
+        <v>1005.628628503331</v>
       </c>
       <c r="AB5" t="n">
-        <v>1279.488442334394</v>
+        <v>1375.945454722208</v>
       </c>
       <c r="AC5" t="n">
-        <v>1157.375861171306</v>
+        <v>1244.627151675094</v>
       </c>
       <c r="AD5" t="n">
-        <v>935131.6965615989</v>
+        <v>1005628.628503331</v>
       </c>
       <c r="AE5" t="n">
-        <v>1279488.442334394</v>
+        <v>1375945.454722208</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.461633751204378e-06</v>
+        <v>2.78609950723828e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1157375.861171306</v>
+        <v>1244627.151675094</v>
       </c>
     </row>
     <row r="6">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>864.5600574807121</v>
+        <v>923.2933667982776</v>
       </c>
       <c r="AB6" t="n">
-        <v>1182.929212342941</v>
+        <v>1263.290717281968</v>
       </c>
       <c r="AC6" t="n">
-        <v>1070.032108568507</v>
+        <v>1142.724024264234</v>
       </c>
       <c r="AD6" t="n">
-        <v>864560.0574807121</v>
+        <v>923293.3667982776</v>
       </c>
       <c r="AE6" t="n">
-        <v>1182929.212342941</v>
+        <v>1263290.717281968</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.508091547697426e-06</v>
+        <v>2.874655237297199e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.42317708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1070032.108568507</v>
+        <v>1142724.024264234</v>
       </c>
     </row>
     <row r="7">
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>817.2017986644307</v>
+        <v>875.9351079819962</v>
       </c>
       <c r="AB7" t="n">
-        <v>1118.131553331581</v>
+        <v>1198.493058270609</v>
       </c>
       <c r="AC7" t="n">
-        <v>1011.418647189106</v>
+        <v>1084.110562884833</v>
       </c>
       <c r="AD7" t="n">
-        <v>817201.7986644307</v>
+        <v>875935.1079819963</v>
       </c>
       <c r="AE7" t="n">
-        <v>1118131.553331581</v>
+        <v>1198493.058270609</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.535039001380505e-06</v>
+        <v>2.92602124288231e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.24088541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1011418.647189106</v>
+        <v>1084110.562884833</v>
       </c>
     </row>
     <row r="8">
@@ -5339,28 +5339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>813.8125656454738</v>
+        <v>872.5458749630392</v>
       </c>
       <c r="AB8" t="n">
-        <v>1113.494255192636</v>
+        <v>1193.855760131664</v>
       </c>
       <c r="AC8" t="n">
-        <v>1007.223926276053</v>
+        <v>1079.91584197178</v>
       </c>
       <c r="AD8" t="n">
-        <v>813812.5656454738</v>
+        <v>872545.8749630392</v>
       </c>
       <c r="AE8" t="n">
-        <v>1113494.255192636</v>
+        <v>1193855.760131664</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.539192193166785e-06</v>
+        <v>2.933937867399011e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.21321614583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1007223.926276053</v>
+        <v>1079915.84197178</v>
       </c>
     </row>
     <row r="9">
@@ -5445,28 +5445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>817.6066694365369</v>
+        <v>876.3399787541024</v>
       </c>
       <c r="AB9" t="n">
-        <v>1118.685515383615</v>
+        <v>1199.047020322642</v>
       </c>
       <c r="AC9" t="n">
-        <v>1011.919739880384</v>
+        <v>1084.611655576111</v>
       </c>
       <c r="AD9" t="n">
-        <v>817606.6694365368</v>
+        <v>876339.9787541024</v>
       </c>
       <c r="AE9" t="n">
-        <v>1118685.515383614</v>
+        <v>1199047.020322642</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.538999021455796e-06</v>
+        <v>2.933569652305211e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.21484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1011919.739880384</v>
+        <v>1084611.655576111</v>
       </c>
     </row>
   </sheetData>
@@ -5742,28 +5742,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>892.5917406788913</v>
+        <v>965.7504972626559</v>
       </c>
       <c r="AB2" t="n">
-        <v>1221.283397965273</v>
+        <v>1321.382436259731</v>
       </c>
       <c r="AC2" t="n">
-        <v>1104.725824545481</v>
+        <v>1195.271551114999</v>
       </c>
       <c r="AD2" t="n">
-        <v>892591.7406788913</v>
+        <v>965750.4972626559</v>
       </c>
       <c r="AE2" t="n">
-        <v>1221283.397965273</v>
+        <v>1321382.436259731</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387612708267588e-06</v>
+        <v>2.955251926292579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.6416015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1104725.824545481</v>
+        <v>1195271.551114999</v>
       </c>
     </row>
     <row r="3">
@@ -5848,28 +5848,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>636.6300278364336</v>
+        <v>699.3253419290073</v>
       </c>
       <c r="AB3" t="n">
-        <v>871.0652902204175</v>
+        <v>956.8477848839256</v>
       </c>
       <c r="AC3" t="n">
-        <v>787.9320414695934</v>
+        <v>865.5275752389036</v>
       </c>
       <c r="AD3" t="n">
-        <v>636630.0278364336</v>
+        <v>699325.3419290073</v>
       </c>
       <c r="AE3" t="n">
-        <v>871065.2902204175</v>
+        <v>956847.7848839256</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.627305963660762e-06</v>
+        <v>3.465735831851779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.77962239583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>787932.0414695934</v>
+        <v>865527.5752389036</v>
       </c>
     </row>
     <row r="4">
@@ -5954,28 +5954,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>632.6217865440428</v>
+        <v>695.3171006366166</v>
       </c>
       <c r="AB4" t="n">
-        <v>865.5810376530429</v>
+        <v>951.3635323165511</v>
       </c>
       <c r="AC4" t="n">
-        <v>782.9711982700522</v>
+        <v>860.5667320393624</v>
       </c>
       <c r="AD4" t="n">
-        <v>632621.7865440429</v>
+        <v>695317.1006366166</v>
       </c>
       <c r="AE4" t="n">
-        <v>865581.0376530429</v>
+        <v>951363.5323165511</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634634714275301e-06</v>
+        <v>3.481344152705208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.73079427083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>782971.1982700522</v>
+        <v>860566.7320393623</v>
       </c>
     </row>
   </sheetData>
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1292.806704743878</v>
+        <v>1369.52402572126</v>
       </c>
       <c r="AB2" t="n">
-        <v>1768.875168037087</v>
+        <v>1873.843191127674</v>
       </c>
       <c r="AC2" t="n">
-        <v>1600.056204631517</v>
+        <v>1695.006226921885</v>
       </c>
       <c r="AD2" t="n">
-        <v>1292806.704743878</v>
+        <v>1369524.02572126</v>
       </c>
       <c r="AE2" t="n">
-        <v>1768875.168037087</v>
+        <v>1873843.191127674</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176435291025888e-06</v>
+        <v>2.388570371711253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.26432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1600056.204631517</v>
+        <v>1695006.226921885</v>
       </c>
     </row>
     <row r="3">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>835.2793363744992</v>
+        <v>900.939520451109</v>
       </c>
       <c r="AB3" t="n">
-        <v>1142.866037951174</v>
+        <v>1232.705198527673</v>
       </c>
       <c r="AC3" t="n">
-        <v>1033.792507311672</v>
+        <v>1115.057544492803</v>
       </c>
       <c r="AD3" t="n">
-        <v>835279.3363744991</v>
+        <v>900939.520451109</v>
       </c>
       <c r="AE3" t="n">
-        <v>1142866.037951174</v>
+        <v>1232705.198527673</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.492557166773948e-06</v>
+        <v>3.030407072821394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.24348958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1033792.507311672</v>
+        <v>1115057.544492803</v>
       </c>
     </row>
     <row r="4">
@@ -6463,28 +6463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>705.3613518992938</v>
+        <v>760.3056729848673</v>
       </c>
       <c r="AB4" t="n">
-        <v>965.1065200152376</v>
+        <v>1040.28376409689</v>
       </c>
       <c r="AC4" t="n">
-        <v>872.9981082804909</v>
+        <v>941.0005416989152</v>
       </c>
       <c r="AD4" t="n">
-        <v>705361.3518992938</v>
+        <v>760305.6729848674</v>
       </c>
       <c r="AE4" t="n">
-        <v>965106.5200152376</v>
+        <v>1040283.76409689</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.597312491548909e-06</v>
+        <v>3.243096599347128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.50618489583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>872998.1082804909</v>
+        <v>941000.5416989152</v>
       </c>
     </row>
     <row r="5">
@@ -6569,28 +6569,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>696.5817054672598</v>
+        <v>751.3554343522411</v>
       </c>
       <c r="AB5" t="n">
-        <v>953.0938204362647</v>
+        <v>1028.03765274307</v>
       </c>
       <c r="AC5" t="n">
-        <v>862.1318838894051</v>
+        <v>929.9231820251784</v>
       </c>
       <c r="AD5" t="n">
-        <v>696581.7054672597</v>
+        <v>751355.4343522411</v>
       </c>
       <c r="AE5" t="n">
-        <v>953093.8204362646</v>
+        <v>1028037.65274307</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.606591998664801e-06</v>
+        <v>3.261937207011809e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.44596354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>862131.8838894052</v>
+        <v>929923.1820251785</v>
       </c>
     </row>
     <row r="6">
@@ -6675,28 +6675,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>699.4437916322479</v>
+        <v>754.2175205172291</v>
       </c>
       <c r="AB6" t="n">
-        <v>957.0098529935312</v>
+        <v>1031.953685300337</v>
       </c>
       <c r="AC6" t="n">
-        <v>865.6741757955926</v>
+        <v>933.4654739313658</v>
       </c>
       <c r="AD6" t="n">
-        <v>699443.7916322479</v>
+        <v>754217.5205172291</v>
       </c>
       <c r="AE6" t="n">
-        <v>957009.8529935313</v>
+        <v>1031953.685300337</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.60844790008798e-06</v>
+        <v>3.265705328544746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.43294270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>865674.1757955926</v>
+        <v>933465.4739313658</v>
       </c>
     </row>
   </sheetData>
@@ -6972,28 +6972,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>647.196062536015</v>
+        <v>707.4749923179762</v>
       </c>
       <c r="AB2" t="n">
-        <v>885.5222050369373</v>
+        <v>967.9984960833129</v>
       </c>
       <c r="AC2" t="n">
-        <v>801.0092086264318</v>
+        <v>875.6140782115428</v>
       </c>
       <c r="AD2" t="n">
-        <v>647196.0625360151</v>
+        <v>707474.9923179762</v>
       </c>
       <c r="AE2" t="n">
-        <v>885522.2050369373</v>
+        <v>967998.4960833129</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.568085913698298e-06</v>
+        <v>3.491821044928652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.61783854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>801009.2086264318</v>
+        <v>875614.0782115428</v>
       </c>
     </row>
     <row r="3">
@@ -7078,28 +7078,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>597.2702744282343</v>
+        <v>647.5028054217528</v>
       </c>
       <c r="AB3" t="n">
-        <v>817.2115391775499</v>
+        <v>885.9419041857445</v>
       </c>
       <c r="AC3" t="n">
-        <v>739.2180168420426</v>
+        <v>801.3888522775283</v>
       </c>
       <c r="AD3" t="n">
-        <v>597270.2744282343</v>
+        <v>647502.8054217527</v>
       </c>
       <c r="AE3" t="n">
-        <v>817211.5391775499</v>
+        <v>885941.9041857446</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.637037367966137e-06</v>
+        <v>3.645362465706441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.1279296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>739218.0168420427</v>
+        <v>801388.8522775283</v>
       </c>
     </row>
   </sheetData>
@@ -7375,28 +7375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2563.640635775727</v>
+        <v>2682.327598197073</v>
       </c>
       <c r="AB2" t="n">
-        <v>3507.686217711213</v>
+        <v>3670.078955795347</v>
       </c>
       <c r="AC2" t="n">
-        <v>3172.91756816125</v>
+        <v>3319.811771242266</v>
       </c>
       <c r="AD2" t="n">
-        <v>2563640.635775727</v>
+        <v>2682327.598197073</v>
       </c>
       <c r="AE2" t="n">
-        <v>3507686.217711214</v>
+        <v>3670078.955795347</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.226024831007828e-07</v>
+        <v>1.555346888765884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.9404296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3172917.56816125</v>
+        <v>3319811.771242267</v>
       </c>
     </row>
     <row r="3">
@@ -7481,28 +7481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1341.731226734287</v>
+        <v>1424.786498172858</v>
       </c>
       <c r="AB3" t="n">
-        <v>1835.815857421943</v>
+        <v>1949.45574394417</v>
       </c>
       <c r="AC3" t="n">
-        <v>1660.60816857333</v>
+        <v>1763.402423820458</v>
       </c>
       <c r="AD3" t="n">
-        <v>1341731.226734287</v>
+        <v>1424786.498172858</v>
       </c>
       <c r="AE3" t="n">
-        <v>1835815.857421943</v>
+        <v>1949455.74394417</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.211027067278462e-06</v>
+        <v>2.28976598052897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1660608.16857333</v>
+        <v>1763402.423820458</v>
       </c>
     </row>
     <row r="4">
@@ -7587,28 +7587,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1104.749752245139</v>
+        <v>1175.842542010097</v>
       </c>
       <c r="AB4" t="n">
-        <v>1511.567349141104</v>
+        <v>1608.83964049005</v>
       </c>
       <c r="AC4" t="n">
-        <v>1367.305482837176</v>
+        <v>1455.294243222296</v>
       </c>
       <c r="AD4" t="n">
-        <v>1104749.752245139</v>
+        <v>1175842.542010097</v>
       </c>
       <c r="AE4" t="n">
-        <v>1511567.349141104</v>
+        <v>1608839.64049005</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.356040188281218e-06</v>
+        <v>2.563951521194587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.48763020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1367305.482837175</v>
+        <v>1455294.243222296</v>
       </c>
     </row>
     <row r="5">
@@ -7693,28 +7693,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>985.0726578377287</v>
+        <v>1056.250698948708</v>
       </c>
       <c r="AB5" t="n">
-        <v>1347.819868792109</v>
+        <v>1445.208804793704</v>
       </c>
       <c r="AC5" t="n">
-        <v>1219.185832191656</v>
+        <v>1307.280104827489</v>
       </c>
       <c r="AD5" t="n">
-        <v>985072.6578377287</v>
+        <v>1056250.698948708</v>
       </c>
       <c r="AE5" t="n">
-        <v>1347819.868792109</v>
+        <v>1445208.804793704</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.432901928324263e-06</v>
+        <v>2.709278906775109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1219185.832191656</v>
+        <v>1307280.104827489</v>
       </c>
     </row>
     <row r="6">
@@ -7799,28 +7799,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>913.0739649581975</v>
+        <v>972.5454574507283</v>
       </c>
       <c r="AB6" t="n">
-        <v>1249.308080836181</v>
+        <v>1330.679600561539</v>
       </c>
       <c r="AC6" t="n">
-        <v>1130.075871016079</v>
+        <v>1203.681407104494</v>
       </c>
       <c r="AD6" t="n">
-        <v>913073.9649581976</v>
+        <v>972545.4574507284</v>
       </c>
       <c r="AE6" t="n">
-        <v>1249308.080836181</v>
+        <v>1330679.600561539</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.481143917093497e-06</v>
+        <v>2.800493106442087e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.517578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1130075.871016079</v>
+        <v>1203681.407104494</v>
       </c>
     </row>
     <row r="7">
@@ -7905,28 +7905,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>857.8050467763035</v>
+        <v>917.1059470682421</v>
       </c>
       <c r="AB7" t="n">
-        <v>1173.686708687129</v>
+        <v>1254.824816637641</v>
       </c>
       <c r="AC7" t="n">
-        <v>1061.67169648967</v>
+        <v>1135.066097295435</v>
       </c>
       <c r="AD7" t="n">
-        <v>857805.0467763034</v>
+        <v>917105.9470682421</v>
       </c>
       <c r="AE7" t="n">
-        <v>1173686.708687129</v>
+        <v>1254824.816637641</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.513496679403023e-06</v>
+        <v>2.861664533996528e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.29296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1061671.696489671</v>
+        <v>1135066.097295435</v>
       </c>
     </row>
     <row r="8">
@@ -8011,28 +8011,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>829.6336242151777</v>
+        <v>888.9345245071164</v>
       </c>
       <c r="AB8" t="n">
-        <v>1135.141325503549</v>
+        <v>1216.27943345406</v>
       </c>
       <c r="AC8" t="n">
-        <v>1026.805030578346</v>
+        <v>1100.19943138411</v>
       </c>
       <c r="AD8" t="n">
-        <v>829633.6242151777</v>
+        <v>888934.5245071164</v>
       </c>
       <c r="AE8" t="n">
-        <v>1135141.325503549</v>
+        <v>1216279.43345406</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.526801513607236e-06</v>
+        <v>2.886820831126904e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.20345052083333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1026805.030578346</v>
+        <v>1100199.43138411</v>
       </c>
     </row>
     <row r="9">
@@ -8117,28 +8117,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>831.16924624853</v>
+        <v>890.4701465404688</v>
       </c>
       <c r="AB9" t="n">
-        <v>1137.242431316444</v>
+        <v>1218.380539266955</v>
       </c>
       <c r="AC9" t="n">
-        <v>1028.705609801379</v>
+        <v>1102.100010607143</v>
       </c>
       <c r="AD9" t="n">
-        <v>831169.24624853</v>
+        <v>890470.1465404688</v>
       </c>
       <c r="AE9" t="n">
-        <v>1137242.431316444</v>
+        <v>1218380.539266955</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.529194469399361e-06</v>
+        <v>2.891345344999274e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.18717447916667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1028705.609801379</v>
+        <v>1102100.010607143</v>
       </c>
     </row>
   </sheetData>
@@ -8414,28 +8414,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.3080952699912</v>
+        <v>632.1056291787839</v>
       </c>
       <c r="AB2" t="n">
-        <v>784.4254285165065</v>
+        <v>864.8748083746397</v>
       </c>
       <c r="AC2" t="n">
-        <v>709.5609665668937</v>
+        <v>782.3323705227805</v>
       </c>
       <c r="AD2" t="n">
-        <v>573308.0952699912</v>
+        <v>632105.629178784</v>
       </c>
       <c r="AE2" t="n">
-        <v>784425.4285165065</v>
+        <v>864874.8083746396</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.616434839505929e-06</v>
+        <v>3.70578476365796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.53483072916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>709560.9665668937</v>
+        <v>782332.3705227805</v>
       </c>
     </row>
     <row r="3">
@@ -8520,28 +8520,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>574.0621391111376</v>
+        <v>632.6890808193382</v>
       </c>
       <c r="AB3" t="n">
-        <v>785.4571445660293</v>
+        <v>865.6731126493155</v>
       </c>
       <c r="AC3" t="n">
-        <v>710.4942170846729</v>
+        <v>783.0544857579085</v>
       </c>
       <c r="AD3" t="n">
-        <v>574062.1391111376</v>
+        <v>632689.0808193382</v>
       </c>
       <c r="AE3" t="n">
-        <v>785457.1445660293</v>
+        <v>865673.1126493155</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.622620615236446e-06</v>
+        <v>3.719966067409468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.49088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>710494.2170846729</v>
+        <v>783054.4857579086</v>
       </c>
     </row>
   </sheetData>
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1762.306617676925</v>
+        <v>1853.38369166416</v>
       </c>
       <c r="AB2" t="n">
-        <v>2411.265661786399</v>
+        <v>2535.881332452659</v>
       </c>
       <c r="AC2" t="n">
-        <v>2181.137851258115</v>
+        <v>2293.860377215181</v>
       </c>
       <c r="AD2" t="n">
-        <v>1762306.617676925</v>
+        <v>1853383.69166416</v>
       </c>
       <c r="AE2" t="n">
-        <v>2411265.661786398</v>
+        <v>2535881.332452659</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.00777180114316e-06</v>
+        <v>1.975218802900631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.07259114583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2181137.851258115</v>
+        <v>2293860.377215181</v>
       </c>
     </row>
     <row r="3">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1043.212943391491</v>
+        <v>1122.809296348947</v>
       </c>
       <c r="AB3" t="n">
-        <v>1427.369972455139</v>
+        <v>1536.27721411479</v>
       </c>
       <c r="AC3" t="n">
-        <v>1291.143785610359</v>
+        <v>1389.657072978286</v>
       </c>
       <c r="AD3" t="n">
-        <v>1043212.943391491</v>
+        <v>1122809.296348947</v>
       </c>
       <c r="AE3" t="n">
-        <v>1427369.972455139</v>
+        <v>1536277.21411479</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.358854936764081e-06</v>
+        <v>2.66333689677181e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.9189453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1291143.785610359</v>
+        <v>1389657.072978286</v>
       </c>
     </row>
     <row r="4">
@@ -9029,28 +9029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>869.2897565591179</v>
+        <v>937.5761597044881</v>
       </c>
       <c r="AB4" t="n">
-        <v>1189.400595281613</v>
+        <v>1282.833064648597</v>
       </c>
       <c r="AC4" t="n">
-        <v>1075.885871802155</v>
+        <v>1160.401277426049</v>
       </c>
       <c r="AD4" t="n">
-        <v>869289.7565591179</v>
+        <v>937576.1597044881</v>
       </c>
       <c r="AE4" t="n">
-        <v>1189400.595281613</v>
+        <v>1282833.064648598</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.48762522516926e-06</v>
+        <v>2.915724882449051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.88704427083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1075885.871802155</v>
+        <v>1160401.277426049</v>
       </c>
     </row>
     <row r="5">
@@ -9135,28 +9135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>780.323341944874</v>
+        <v>837.2145439321383</v>
       </c>
       <c r="AB5" t="n">
-        <v>1067.672821885199</v>
+        <v>1145.513874306868</v>
       </c>
       <c r="AC5" t="n">
-        <v>965.7756262526915</v>
+        <v>1036.18763788184</v>
       </c>
       <c r="AD5" t="n">
-        <v>780323.3419448739</v>
+        <v>837214.5439321384</v>
       </c>
       <c r="AE5" t="n">
-        <v>1067672.821885199</v>
+        <v>1145513.874306868</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.554000636580585e-06</v>
+        <v>3.045819771511431e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.42317708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>965775.6262526915</v>
+        <v>1036187.63788184</v>
       </c>
     </row>
     <row r="6">
@@ -9241,28 +9241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>753.1198094372787</v>
+        <v>810.0110114245431</v>
       </c>
       <c r="AB6" t="n">
-        <v>1030.451748573154</v>
+        <v>1108.292800994823</v>
       </c>
       <c r="AC6" t="n">
-        <v>932.1068799374438</v>
+        <v>1002.518891566592</v>
       </c>
       <c r="AD6" t="n">
-        <v>753119.8094372788</v>
+        <v>810011.0114245431</v>
       </c>
       <c r="AE6" t="n">
-        <v>1030451.748573154</v>
+        <v>1108292.800994823</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.573505255226191e-06</v>
+        <v>3.084048554504274e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.29296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>932106.8799374438</v>
+        <v>1002518.891566592</v>
       </c>
     </row>
     <row r="7">
@@ -9347,28 +9347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>756.3470640456705</v>
+        <v>813.238266032935</v>
       </c>
       <c r="AB7" t="n">
-        <v>1034.86742070478</v>
+        <v>1112.70847312645</v>
       </c>
       <c r="AC7" t="n">
-        <v>936.1011265182625</v>
+        <v>1006.513138147411</v>
       </c>
       <c r="AD7" t="n">
-        <v>756347.0640456706</v>
+        <v>813238.266032935</v>
       </c>
       <c r="AE7" t="n">
-        <v>1034867.42070478</v>
+        <v>1112708.47312645</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.573007688424008e-06</v>
+        <v>3.083073330448334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.29622395833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>936101.1265182626</v>
+        <v>1006513.138147411</v>
       </c>
     </row>
   </sheetData>
@@ -9644,28 +9644,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2130.506965454606</v>
+        <v>2235.149268648057</v>
       </c>
       <c r="AB2" t="n">
-        <v>2915.053621468731</v>
+        <v>3058.229837190788</v>
       </c>
       <c r="AC2" t="n">
-        <v>2636.844995139209</v>
+        <v>2766.356673781719</v>
       </c>
       <c r="AD2" t="n">
-        <v>2130506.965454605</v>
+        <v>2235149.268648057</v>
       </c>
       <c r="AE2" t="n">
-        <v>2915053.621468731</v>
+        <v>3058229.837190788</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.106805161448834e-07</v>
+        <v>1.750968234415047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.42513020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2636844.995139209</v>
+        <v>2766356.673781719</v>
       </c>
     </row>
     <row r="3">
@@ -9750,28 +9750,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1196.760782600607</v>
+        <v>1266.550794850614</v>
       </c>
       <c r="AB3" t="n">
-        <v>1637.460900113628</v>
+        <v>1732.950673792129</v>
       </c>
       <c r="AC3" t="n">
-        <v>1481.18392999759</v>
+        <v>1567.560293696954</v>
       </c>
       <c r="AD3" t="n">
-        <v>1196760.782600607</v>
+        <v>1266550.794850613</v>
       </c>
       <c r="AE3" t="n">
-        <v>1637460.900113628</v>
+        <v>1732950.673792128</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.280705415370775e-06</v>
+        <v>2.462416248291395e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.39095052083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1481183.92999759</v>
+        <v>1567560.293696954</v>
       </c>
     </row>
     <row r="4">
@@ -9856,28 +9856,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>993.9671303046928</v>
+        <v>1052.196606143267</v>
       </c>
       <c r="AB4" t="n">
-        <v>1359.98967841784</v>
+        <v>1439.661816163348</v>
       </c>
       <c r="AC4" t="n">
-        <v>1230.194172267143</v>
+        <v>1302.262513006766</v>
       </c>
       <c r="AD4" t="n">
-        <v>993967.1303046928</v>
+        <v>1052196.606143267</v>
       </c>
       <c r="AE4" t="n">
-        <v>1359989.678417841</v>
+        <v>1439661.816163348</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.418185022197787e-06</v>
+        <v>2.726748711945059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.18977864583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1230194.172267143</v>
+        <v>1302262.513006766</v>
       </c>
     </row>
     <row r="5">
@@ -9962,28 +9962,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>883.3295233582363</v>
+        <v>953.1194460996923</v>
       </c>
       <c r="AB5" t="n">
-        <v>1208.610423606963</v>
+        <v>1304.100074815915</v>
       </c>
       <c r="AC5" t="n">
-        <v>1093.262341073297</v>
+        <v>1179.638593991434</v>
       </c>
       <c r="AD5" t="n">
-        <v>883329.5233582363</v>
+        <v>953119.4460996923</v>
       </c>
       <c r="AE5" t="n">
-        <v>1208610.423606963</v>
+        <v>1304100.074815915</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490922459568673e-06</v>
+        <v>2.866601206899408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.64453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1093262.341073297</v>
+        <v>1179638.593991434</v>
       </c>
     </row>
     <row r="6">
@@ -10068,28 +10068,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>815.8349824608156</v>
+        <v>873.9791174448179</v>
       </c>
       <c r="AB6" t="n">
-        <v>1116.26141510212</v>
+        <v>1195.816785725429</v>
       </c>
       <c r="AC6" t="n">
-        <v>1009.726992327508</v>
+        <v>1081.689710035193</v>
       </c>
       <c r="AD6" t="n">
-        <v>815834.9824608156</v>
+        <v>873979.1174448179</v>
       </c>
       <c r="AE6" t="n">
-        <v>1116261.41510212</v>
+        <v>1195816.785725429</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.535676459237892e-06</v>
+        <v>2.952649859961133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.33365885416667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1009726.992327509</v>
+        <v>1081689.710035193</v>
       </c>
     </row>
     <row r="7">
@@ -10174,28 +10174,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>792.9351739986081</v>
+        <v>851.0793089826104</v>
       </c>
       <c r="AB7" t="n">
-        <v>1084.928886895879</v>
+        <v>1164.484257519188</v>
       </c>
       <c r="AC7" t="n">
-        <v>981.3847966377922</v>
+        <v>1053.347514345477</v>
       </c>
       <c r="AD7" t="n">
-        <v>792935.1739986081</v>
+        <v>851079.3089826105</v>
       </c>
       <c r="AE7" t="n">
-        <v>1084928.886895879</v>
+        <v>1164484.257519188</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549131910118833e-06</v>
+        <v>2.978520696829363e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.244140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>981384.7966377921</v>
+        <v>1053347.514345477</v>
       </c>
     </row>
     <row r="8">
@@ -10280,28 +10280,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>795.2132025234529</v>
+        <v>853.3573375074553</v>
       </c>
       <c r="AB8" t="n">
-        <v>1088.045786023098</v>
+        <v>1167.601156646407</v>
       </c>
       <c r="AC8" t="n">
-        <v>984.2042232869043</v>
+        <v>1056.166940994589</v>
       </c>
       <c r="AD8" t="n">
-        <v>795213.2025234529</v>
+        <v>853357.3375074554</v>
       </c>
       <c r="AE8" t="n">
-        <v>1088045.786023098</v>
+        <v>1167601.156646407</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550399452593125e-06</v>
+        <v>2.980957804650284e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.23600260416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>984204.2232869043</v>
+        <v>1056166.940994589</v>
       </c>
     </row>
   </sheetData>
@@ -10577,28 +10577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3084.553780975307</v>
+        <v>3217.4898499538</v>
       </c>
       <c r="AB2" t="n">
-        <v>4220.422564039363</v>
+        <v>4402.311558341202</v>
       </c>
       <c r="AC2" t="n">
-        <v>3817.631357927558</v>
+        <v>3982.161121896028</v>
       </c>
       <c r="AD2" t="n">
-        <v>3084553.780975307</v>
+        <v>3217489.8499538</v>
       </c>
       <c r="AE2" t="n">
-        <v>4220422.564039364</v>
+        <v>4402311.558341201</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.431115500789199e-07</v>
+        <v>1.384360455443146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.61197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3817631.357927558</v>
+        <v>3982161.121896029</v>
       </c>
     </row>
     <row r="3">
@@ -10683,28 +10683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1512.458967315996</v>
+        <v>1596.938363190991</v>
       </c>
       <c r="AB3" t="n">
-        <v>2069.413084062171</v>
+        <v>2185.001520466249</v>
       </c>
       <c r="AC3" t="n">
-        <v>1871.911203758782</v>
+        <v>1976.468042021844</v>
       </c>
       <c r="AD3" t="n">
-        <v>1512458.967315996</v>
+        <v>1596938.363190991</v>
       </c>
       <c r="AE3" t="n">
-        <v>2069413.084062171</v>
+        <v>2185001.520466249</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.143842170676189e-06</v>
+        <v>2.130891207631205e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.39029947916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1871911.203758782</v>
+        <v>1976468.042021844</v>
       </c>
     </row>
     <row r="4">
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1218.925735743279</v>
+        <v>1291.482868379496</v>
       </c>
       <c r="AB4" t="n">
-        <v>1667.787966852152</v>
+        <v>1767.063836719801</v>
       </c>
       <c r="AC4" t="n">
-        <v>1508.616624050894</v>
+        <v>1598.417744232934</v>
       </c>
       <c r="AD4" t="n">
-        <v>1218925.735743279</v>
+        <v>1291482.868379497</v>
       </c>
       <c r="AE4" t="n">
-        <v>1667787.966852152</v>
+        <v>1767063.836719801</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297151278462228e-06</v>
+        <v>2.416494447488967e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.80826822916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1508616.624050895</v>
+        <v>1598417.744232934</v>
       </c>
     </row>
     <row r="5">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1096.327452639122</v>
+        <v>1156.791819344521</v>
       </c>
       <c r="AB5" t="n">
-        <v>1500.043587254518</v>
+        <v>1582.773601280441</v>
       </c>
       <c r="AC5" t="n">
-        <v>1356.881532611344</v>
+        <v>1431.715910210937</v>
       </c>
       <c r="AD5" t="n">
-        <v>1096327.452639122</v>
+        <v>1156791.819344522</v>
       </c>
       <c r="AE5" t="n">
-        <v>1500043.587254518</v>
+        <v>1582773.601280441</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378370283998969e-06</v>
+        <v>2.567799294632765e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.11328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1356881.532611344</v>
+        <v>1431715.910210937</v>
       </c>
     </row>
     <row r="6">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1006.536751292975</v>
+        <v>1079.008543074621</v>
       </c>
       <c r="AB6" t="n">
-        <v>1377.187988386549</v>
+        <v>1476.347091132001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1245.751099670418</v>
+        <v>1335.446596820519</v>
       </c>
       <c r="AD6" t="n">
-        <v>1006536.751292975</v>
+        <v>1079008.543074621</v>
       </c>
       <c r="AE6" t="n">
-        <v>1377187.988386549</v>
+        <v>1476347.091132001</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.43022621916785e-06</v>
+        <v>2.664402968765133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.70963541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1245751.099670418</v>
+        <v>1335446.596820519</v>
       </c>
     </row>
     <row r="7">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>949.3837027021386</v>
+        <v>1009.762728552966</v>
       </c>
       <c r="AB7" t="n">
-        <v>1298.988665890016</v>
+        <v>1381.601912793741</v>
       </c>
       <c r="AC7" t="n">
-        <v>1175.015010759515</v>
+        <v>1249.743765327169</v>
       </c>
       <c r="AD7" t="n">
-        <v>949383.7027021387</v>
+        <v>1009762.728552966</v>
       </c>
       <c r="AE7" t="n">
-        <v>1298988.665890016</v>
+        <v>1381601.912793741</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465706595862348e-06</v>
+        <v>2.730500219487279e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.45084635416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1175015.010759515</v>
+        <v>1249743.765327169</v>
       </c>
     </row>
     <row r="8">
@@ -11213,28 +11213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>902.2203563962794</v>
+        <v>962.5993822471066</v>
       </c>
       <c r="AB8" t="n">
-        <v>1234.457694774349</v>
+        <v>1317.070941678074</v>
       </c>
       <c r="AC8" t="n">
-        <v>1116.64278495734</v>
+        <v>1191.371539524994</v>
       </c>
       <c r="AD8" t="n">
-        <v>902220.3563962794</v>
+        <v>962599.3822471066</v>
       </c>
       <c r="AE8" t="n">
-        <v>1234457.694774349</v>
+        <v>1317070.941678074</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.491681619649301e-06</v>
+        <v>2.778889718689699e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.2685546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1116642.78495734</v>
+        <v>1191371.539524994</v>
       </c>
     </row>
     <row r="9">
@@ -11319,28 +11319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>875.9266452665678</v>
+        <v>936.3056711173949</v>
       </c>
       <c r="AB9" t="n">
-        <v>1198.481479210011</v>
+        <v>1281.094726113736</v>
       </c>
       <c r="AC9" t="n">
-        <v>1084.100088913527</v>
+        <v>1158.828843481181</v>
       </c>
       <c r="AD9" t="n">
-        <v>875926.6452665678</v>
+        <v>936305.6711173949</v>
       </c>
       <c r="AE9" t="n">
-        <v>1198481.479210011</v>
+        <v>1281094.726113736</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.502504546227198e-06</v>
+        <v>2.79905201002404e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.1953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1084100.088913527</v>
+        <v>1158828.843481181</v>
       </c>
     </row>
     <row r="10">
@@ -11425,28 +11425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>871.7931263535481</v>
+        <v>932.1721522043753</v>
       </c>
       <c r="AB10" t="n">
-        <v>1192.825816275233</v>
+        <v>1275.439063178958</v>
       </c>
       <c r="AC10" t="n">
-        <v>1078.984194511472</v>
+        <v>1153.712949079126</v>
       </c>
       <c r="AD10" t="n">
-        <v>871793.1263535481</v>
+        <v>932172.1522043752</v>
       </c>
       <c r="AE10" t="n">
-        <v>1192825.816275233</v>
+        <v>1275439.063178958</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.506739604453332e-06</v>
+        <v>2.806941602285305e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.166015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>1078984.194511472</v>
+        <v>1153712.949079126</v>
       </c>
     </row>
     <row r="11">
@@ -11531,28 +11531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>874.8046271678418</v>
+        <v>935.1836530186689</v>
       </c>
       <c r="AB11" t="n">
-        <v>1196.946284547389</v>
+        <v>1279.559531451114</v>
       </c>
       <c r="AC11" t="n">
-        <v>1082.711411074847</v>
+        <v>1157.4401656425</v>
       </c>
       <c r="AD11" t="n">
-        <v>874804.6271678418</v>
+        <v>935183.6530186689</v>
       </c>
       <c r="AE11" t="n">
-        <v>1196946.284547389</v>
+        <v>1279559.531451114</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.506363154833231e-06</v>
+        <v>2.806240305195414e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1082711.411074847</v>
+        <v>1157440.1656425</v>
       </c>
     </row>
   </sheetData>
@@ -11828,28 +11828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1432.594853499817</v>
+        <v>1521.473380558117</v>
       </c>
       <c r="AB2" t="n">
-        <v>1960.139480182839</v>
+        <v>2081.747001947886</v>
       </c>
       <c r="AC2" t="n">
-        <v>1773.066519267227</v>
+        <v>1883.067989832247</v>
       </c>
       <c r="AD2" t="n">
-        <v>1432594.853499817</v>
+        <v>1521473.380558117</v>
       </c>
       <c r="AE2" t="n">
-        <v>1960139.480182839</v>
+        <v>2081747.001947886</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116403954581854e-06</v>
+        <v>2.237828774031076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1773066.519267227</v>
+        <v>1883067.989832247</v>
       </c>
     </row>
     <row r="3">
@@ -11934,28 +11934,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>903.4061812229399</v>
+        <v>969.958489957002</v>
       </c>
       <c r="AB3" t="n">
-        <v>1236.080192617085</v>
+        <v>1327.139997507672</v>
       </c>
       <c r="AC3" t="n">
-        <v>1118.110433883156</v>
+        <v>1200.479618798224</v>
       </c>
       <c r="AD3" t="n">
-        <v>903406.18122294</v>
+        <v>969958.489957002</v>
       </c>
       <c r="AE3" t="n">
-        <v>1236080.192617085</v>
+        <v>1327139.997507672</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.445776211131994e-06</v>
+        <v>2.898054591084476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.46158854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1118110.433883156</v>
+        <v>1200479.618798224</v>
       </c>
     </row>
     <row r="4">
@@ -12040,28 +12040,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>755.3107957040287</v>
+        <v>821.9483557841114</v>
       </c>
       <c r="AB4" t="n">
-        <v>1033.449552642813</v>
+        <v>1124.626002186049</v>
       </c>
       <c r="AC4" t="n">
-        <v>934.8185777941393</v>
+        <v>1017.29327495992</v>
       </c>
       <c r="AD4" t="n">
-        <v>755310.7957040287</v>
+        <v>821948.3557841114</v>
       </c>
       <c r="AE4" t="n">
-        <v>1033449.552642813</v>
+        <v>1124626.002186049</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.563983688675955e-06</v>
+        <v>3.135001167158356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.595703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>934818.5777941393</v>
+        <v>1017293.27495992</v>
       </c>
     </row>
     <row r="5">
@@ -12146,28 +12146,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>714.1334948412406</v>
+        <v>769.6506609407652</v>
       </c>
       <c r="AB5" t="n">
-        <v>977.1089529880427</v>
+        <v>1053.069988889922</v>
       </c>
       <c r="AC5" t="n">
-        <v>883.8550458958917</v>
+        <v>952.5664671432789</v>
       </c>
       <c r="AD5" t="n">
-        <v>714133.4948412406</v>
+        <v>769650.6609407652</v>
       </c>
       <c r="AE5" t="n">
-        <v>977108.9529880427</v>
+        <v>1053069.988889922</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.596564561039493e-06</v>
+        <v>3.200309439633498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.37923177083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>883855.0458958917</v>
+        <v>952566.4671432789</v>
       </c>
     </row>
     <row r="6">
@@ -12252,28 +12252,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>719.1234349695594</v>
+        <v>774.640601069084</v>
       </c>
       <c r="AB6" t="n">
-        <v>983.9364092122303</v>
+        <v>1059.897445114109</v>
       </c>
       <c r="AC6" t="n">
-        <v>890.030899280438</v>
+        <v>958.7423205278251</v>
       </c>
       <c r="AD6" t="n">
-        <v>719123.4349695594</v>
+        <v>774640.601069084</v>
       </c>
       <c r="AE6" t="n">
-        <v>983936.4092122302</v>
+        <v>1059897.445114109</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.595750039230405e-06</v>
+        <v>3.19867673282162e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.3857421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>890030.899280438</v>
+        <v>958742.320527825</v>
       </c>
     </row>
   </sheetData>
@@ -12549,28 +12549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1024.011673988592</v>
+        <v>1087.883257538375</v>
       </c>
       <c r="AB2" t="n">
-        <v>1401.097948557871</v>
+        <v>1488.489866986079</v>
       </c>
       <c r="AC2" t="n">
-        <v>1267.379126800829</v>
+        <v>1346.430483189577</v>
       </c>
       <c r="AD2" t="n">
-        <v>1024011.673988592</v>
+        <v>1087883.257538375</v>
       </c>
       <c r="AE2" t="n">
-        <v>1401097.948557871</v>
+        <v>1488489.866986079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.310979417328052e-06</v>
+        <v>2.742650926972191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.16731770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1267379.126800829</v>
+        <v>1346430.483189577</v>
       </c>
     </row>
     <row r="3">
@@ -12655,28 +12655,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>685.1896650071386</v>
+        <v>748.9758181937993</v>
       </c>
       <c r="AB3" t="n">
-        <v>937.5067280973719</v>
+        <v>1024.781756933834</v>
       </c>
       <c r="AC3" t="n">
-        <v>848.0324017667151</v>
+        <v>926.9780243422975</v>
       </c>
       <c r="AD3" t="n">
-        <v>685189.6650071386</v>
+        <v>748975.8181937994</v>
       </c>
       <c r="AE3" t="n">
-        <v>937506.728097372</v>
+        <v>1024781.756933834</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.594365632286433e-06</v>
+        <v>3.335512611048697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.82682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>848032.4017667151</v>
+        <v>926978.0243422976</v>
       </c>
     </row>
     <row r="4">
@@ -12761,28 +12761,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>651.256539377996</v>
+        <v>715.0426925646566</v>
       </c>
       <c r="AB4" t="n">
-        <v>891.077928587731</v>
+        <v>978.3529574241933</v>
       </c>
       <c r="AC4" t="n">
-        <v>806.0347017190447</v>
+        <v>884.9803242946272</v>
       </c>
       <c r="AD4" t="n">
-        <v>651256.539377996</v>
+        <v>715042.6925646566</v>
       </c>
       <c r="AE4" t="n">
-        <v>891077.928587731</v>
+        <v>978352.9574241933</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.628940447434799e-06</v>
+        <v>3.407845286575995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.59733072916667</v>
       </c>
       <c r="AH4" t="n">
-        <v>806034.7017190447</v>
+        <v>884980.3242946272</v>
       </c>
     </row>
     <row r="5">
@@ -12867,28 +12867,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>655.6505968184748</v>
+        <v>719.4367500051355</v>
       </c>
       <c r="AB5" t="n">
-        <v>897.090071829927</v>
+        <v>984.3651006663893</v>
       </c>
       <c r="AC5" t="n">
-        <v>811.4730544483017</v>
+        <v>890.4186770238841</v>
       </c>
       <c r="AD5" t="n">
-        <v>655650.5968184748</v>
+        <v>719436.7500051355</v>
       </c>
       <c r="AE5" t="n">
-        <v>897090.0718299269</v>
+        <v>984365.1006663892</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.629046505149978e-06</v>
+        <v>3.408067165948778e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.595703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>811473.0544483017</v>
+        <v>890418.6770238841</v>
       </c>
     </row>
   </sheetData>
@@ -23281,28 +23281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.890546766599</v>
+        <v>834.3976066379422</v>
       </c>
       <c r="AB2" t="n">
-        <v>1057.502943610502</v>
+        <v>1141.659616426446</v>
       </c>
       <c r="AC2" t="n">
-        <v>956.5763468870182</v>
+        <v>1032.701224964041</v>
       </c>
       <c r="AD2" t="n">
-        <v>772890.5467665989</v>
+        <v>834397.6066379423</v>
       </c>
       <c r="AE2" t="n">
-        <v>1057502.943610502</v>
+        <v>1141659.616426446</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474636617733717e-06</v>
+        <v>3.205647319902592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>956576.3468870182</v>
+        <v>1032701.224964041</v>
       </c>
     </row>
     <row r="3">
@@ -23387,28 +23387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>609.2471105807377</v>
+        <v>670.75408094353</v>
       </c>
       <c r="AB3" t="n">
-        <v>833.5987747821248</v>
+        <v>917.7553251285207</v>
       </c>
       <c r="AC3" t="n">
-        <v>754.0412776801467</v>
+        <v>830.1660449759427</v>
       </c>
       <c r="AD3" t="n">
-        <v>609247.1105807377</v>
+        <v>670754.08094353</v>
       </c>
       <c r="AE3" t="n">
-        <v>833598.7747821248</v>
+        <v>917755.3251285207</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.638546081828217e-06</v>
+        <v>3.56196285415856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.8984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>754041.2776801466</v>
+        <v>830166.0449759427</v>
       </c>
     </row>
     <row r="4">
@@ -23493,28 +23493,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>614.3992890313153</v>
+        <v>675.9062593941076</v>
       </c>
       <c r="AB4" t="n">
-        <v>840.6482126362766</v>
+        <v>924.8047629826724</v>
       </c>
       <c r="AC4" t="n">
-        <v>760.4179270794464</v>
+        <v>836.5426943752425</v>
       </c>
       <c r="AD4" t="n">
-        <v>614399.2890313154</v>
+        <v>675906.2593941076</v>
       </c>
       <c r="AE4" t="n">
-        <v>840648.2126362766</v>
+        <v>924804.7629826724</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.63843637000486e-06</v>
+        <v>3.561724356478335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.8984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>760417.9270794464</v>
+        <v>836542.6943752425</v>
       </c>
     </row>
   </sheetData>
@@ -23790,28 +23790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>554.1494152328989</v>
+        <v>611.1384279331218</v>
       </c>
       <c r="AB2" t="n">
-        <v>758.2116772684461</v>
+        <v>836.1865586226896</v>
       </c>
       <c r="AC2" t="n">
-        <v>685.8490189467175</v>
+        <v>756.3820870629453</v>
       </c>
       <c r="AD2" t="n">
-        <v>554149.4152328989</v>
+        <v>611138.4279331218</v>
       </c>
       <c r="AE2" t="n">
-        <v>758211.6772684461</v>
+        <v>836186.5586226897</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581557388696872e-06</v>
+        <v>3.761776893374641e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.11751302083333</v>
       </c>
       <c r="AH2" t="n">
-        <v>685849.0189467175</v>
+        <v>756382.0870629452</v>
       </c>
     </row>
   </sheetData>
@@ -24087,28 +24087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1931.02343763357</v>
+        <v>2034.64740348938</v>
       </c>
       <c r="AB2" t="n">
-        <v>2642.111458111857</v>
+        <v>2783.894339762506</v>
       </c>
       <c r="AC2" t="n">
-        <v>2389.952048776382</v>
+        <v>2518.203371195817</v>
       </c>
       <c r="AD2" t="n">
-        <v>1931023.43763357</v>
+        <v>2034647.40348938</v>
       </c>
       <c r="AE2" t="n">
-        <v>2642111.458111857</v>
+        <v>2783894.339762506</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.586699961979277e-07</v>
+        <v>1.860374090811282e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2389952.048776382</v>
+        <v>2518203.371195817</v>
       </c>
     </row>
     <row r="3">
@@ -24193,28 +24193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1124.15372231586</v>
+        <v>1193.208008776761</v>
       </c>
       <c r="AB3" t="n">
-        <v>1538.116717034608</v>
+        <v>1632.599838230523</v>
       </c>
       <c r="AC3" t="n">
-        <v>1391.321016321195</v>
+        <v>1476.786801038066</v>
       </c>
       <c r="AD3" t="n">
-        <v>1124153.72231586</v>
+        <v>1193208.008776761</v>
       </c>
       <c r="AE3" t="n">
-        <v>1538116.717034608</v>
+        <v>1632599.838230523</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.319389893072402e-06</v>
+        <v>2.560379257184341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1391321.016321195</v>
+        <v>1476786.801038065</v>
       </c>
     </row>
     <row r="4">
@@ -24299,28 +24299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>937.569807826404</v>
+        <v>995.1861788407228</v>
       </c>
       <c r="AB4" t="n">
-        <v>1282.824373728778</v>
+        <v>1361.657634405463</v>
       </c>
       <c r="AC4" t="n">
-        <v>1160.393415955419</v>
+        <v>1231.702940876297</v>
       </c>
       <c r="AD4" t="n">
-        <v>937569.807826404</v>
+        <v>995186.1788407229</v>
       </c>
       <c r="AE4" t="n">
-        <v>1282824.373728778</v>
+        <v>1361657.634405463</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.451742484227001e-06</v>
+        <v>2.817219809629164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1160393.415955419</v>
+        <v>1231702.940876297</v>
       </c>
     </row>
     <row r="5">
@@ -24405,28 +24405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>833.3925561511506</v>
+        <v>891.0941785114902</v>
       </c>
       <c r="AB5" t="n">
-        <v>1140.28446201072</v>
+        <v>1219.234367340054</v>
       </c>
       <c r="AC5" t="n">
-        <v>1031.45731335571</v>
+        <v>1102.872350527301</v>
       </c>
       <c r="AD5" t="n">
-        <v>833392.5561511506</v>
+        <v>891094.1785114902</v>
       </c>
       <c r="AE5" t="n">
-        <v>1140284.46201072</v>
+        <v>1219234.367340054</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.522054798277881e-06</v>
+        <v>2.953666353115477e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.53059895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1031457.31335571</v>
+        <v>1102872.350527301</v>
       </c>
     </row>
     <row r="6">
@@ -24511,28 +24511,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>778.3073399214859</v>
+        <v>835.8383700812331</v>
       </c>
       <c r="AB6" t="n">
-        <v>1064.914438977067</v>
+        <v>1143.630932531554</v>
       </c>
       <c r="AC6" t="n">
-        <v>963.2804995378968</v>
+        <v>1034.484401426837</v>
       </c>
       <c r="AD6" t="n">
-        <v>778307.3399214859</v>
+        <v>835838.3700812331</v>
       </c>
       <c r="AE6" t="n">
-        <v>1064914.438977066</v>
+        <v>1143630.932531554</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.557309431933644e-06</v>
+        <v>3.022080726460155e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.29134114583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>963280.4995378968</v>
+        <v>1034484.401426837</v>
       </c>
     </row>
     <row r="7">
@@ -24617,28 +24617,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>773.1546234566687</v>
+        <v>830.6856536164159</v>
       </c>
       <c r="AB7" t="n">
-        <v>1057.864264988097</v>
+        <v>1136.580758542584</v>
       </c>
       <c r="AC7" t="n">
-        <v>956.903184259453</v>
+        <v>1028.107086148393</v>
       </c>
       <c r="AD7" t="n">
-        <v>773154.6234566687</v>
+        <v>830685.6536164159</v>
       </c>
       <c r="AE7" t="n">
-        <v>1057864.264988097</v>
+        <v>1136580.758542584</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.562627169971106e-06</v>
+        <v>3.032400212942313e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.25716145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>956903.1842594531</v>
+        <v>1028107.086148393</v>
       </c>
     </row>
     <row r="8">
@@ -24723,28 +24723,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>776.8564516225068</v>
+        <v>834.387481782254</v>
       </c>
       <c r="AB8" t="n">
-        <v>1062.929269597729</v>
+        <v>1141.645763152217</v>
       </c>
       <c r="AC8" t="n">
-        <v>961.4847919379206</v>
+        <v>1032.68869382686</v>
       </c>
       <c r="AD8" t="n">
-        <v>776856.4516225068</v>
+        <v>834387.4817822539</v>
       </c>
       <c r="AE8" t="n">
-        <v>1062929.269597729</v>
+        <v>1141645.763152217</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.562528693340783e-06</v>
+        <v>3.032209111340792e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.25716145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>961484.7919379206</v>
+        <v>1032688.69382686</v>
       </c>
     </row>
   </sheetData>
@@ -25020,28 +25020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2813.26002621063</v>
+        <v>2933.128333251875</v>
       </c>
       <c r="AB2" t="n">
-        <v>3849.226480134556</v>
+        <v>4013.23558604488</v>
       </c>
       <c r="AC2" t="n">
-        <v>3481.861707293664</v>
+        <v>3630.218014324126</v>
       </c>
       <c r="AD2" t="n">
-        <v>2813260.02621063</v>
+        <v>2933128.333251875</v>
       </c>
       <c r="AE2" t="n">
-        <v>3849226.480134556</v>
+        <v>4013235.58604488</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.819365688929093e-07</v>
+        <v>1.467219701632596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3481861.707293664</v>
+        <v>3630218.014324126</v>
       </c>
     </row>
     <row r="3">
@@ -25126,28 +25126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1431.458648818235</v>
+        <v>1503.379722551533</v>
       </c>
       <c r="AB3" t="n">
-        <v>1958.584874811686</v>
+        <v>2056.990460827423</v>
       </c>
       <c r="AC3" t="n">
-        <v>1771.660283250794</v>
+        <v>1860.674178250297</v>
       </c>
       <c r="AD3" t="n">
-        <v>1431458.648818235</v>
+        <v>1503379.722551533</v>
       </c>
       <c r="AE3" t="n">
-        <v>1958584.874811686</v>
+        <v>2056990.460827423</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.17717513799958e-06</v>
+        <v>2.208842281401984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.1201171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1771660.283250795</v>
+        <v>1860674.178250297</v>
       </c>
     </row>
     <row r="4">
@@ -25232,28 +25232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1163.045612636691</v>
+        <v>1234.966596861438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1591.330317160676</v>
+        <v>1689.735780706864</v>
       </c>
       <c r="AC4" t="n">
-        <v>1439.455985136988</v>
+        <v>1528.469769355264</v>
       </c>
       <c r="AD4" t="n">
-        <v>1163045.612636691</v>
+        <v>1234966.596861438</v>
       </c>
       <c r="AE4" t="n">
-        <v>1591330.317160676</v>
+        <v>1689735.780706865</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.325211672887073e-06</v>
+        <v>2.486616885109127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.6552734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1439455.985136988</v>
+        <v>1528469.769355264</v>
       </c>
     </row>
     <row r="5">
@@ -25338,28 +25338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1035.255949669337</v>
+        <v>1107.091593039512</v>
       </c>
       <c r="AB5" t="n">
-        <v>1416.4828626067</v>
+        <v>1514.77155903069</v>
       </c>
       <c r="AC5" t="n">
-        <v>1281.295726245699</v>
+        <v>1370.203887432036</v>
       </c>
       <c r="AD5" t="n">
-        <v>1035255.949669337</v>
+        <v>1107091.593039512</v>
       </c>
       <c r="AE5" t="n">
-        <v>1416482.8626067</v>
+        <v>1514771.55903069</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405398129284465e-06</v>
+        <v>2.637078128783829e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1281295.726245699</v>
+        <v>1370203.887432036</v>
       </c>
     </row>
     <row r="6">
@@ -25444,28 +25444,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>959.8269611521953</v>
+        <v>1031.66260452237</v>
       </c>
       <c r="AB6" t="n">
-        <v>1313.27759282543</v>
+        <v>1411.56628924942</v>
       </c>
       <c r="AC6" t="n">
-        <v>1187.940222562848</v>
+        <v>1276.848383749185</v>
       </c>
       <c r="AD6" t="n">
-        <v>959826.9611521952</v>
+        <v>1031662.60452237</v>
       </c>
       <c r="AE6" t="n">
-        <v>1313277.59282543</v>
+        <v>1411566.28924942</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455218116986986e-06</v>
+        <v>2.730559966569886e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.61360677083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1187940.222562848</v>
+        <v>1276848.383749185</v>
       </c>
     </row>
     <row r="7">
@@ -25550,28 +25550,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>904.3003080382185</v>
+        <v>964.1492102128202</v>
       </c>
       <c r="AB7" t="n">
-        <v>1237.30357637184</v>
+        <v>1319.191484674348</v>
       </c>
       <c r="AC7" t="n">
-        <v>1119.217059609387</v>
+        <v>1193.289700873904</v>
       </c>
       <c r="AD7" t="n">
-        <v>904300.3080382185</v>
+        <v>964149.2102128202</v>
       </c>
       <c r="AE7" t="n">
-        <v>1237303.57637184</v>
+        <v>1319191.484674348</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.489285499054044e-06</v>
+        <v>2.794483737551209e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.37109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1119217.059609387</v>
+        <v>1193289.700873904</v>
       </c>
     </row>
     <row r="8">
@@ -25656,28 +25656,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>858.8190662262654</v>
+        <v>918.6679684008672</v>
       </c>
       <c r="AB8" t="n">
-        <v>1175.074134833948</v>
+        <v>1256.962043136456</v>
       </c>
       <c r="AC8" t="n">
-        <v>1062.926708632302</v>
+        <v>1136.999349896819</v>
       </c>
       <c r="AD8" t="n">
-        <v>858819.0662262654</v>
+        <v>918667.9684008672</v>
       </c>
       <c r="AE8" t="n">
-        <v>1175074.134833948</v>
+        <v>1256962.043136456</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.512345036219211e-06</v>
+        <v>2.837752473897898e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.21321614583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1062926.708632302</v>
+        <v>1136999.34989682</v>
       </c>
     </row>
     <row r="9">
@@ -25762,28 +25762,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>851.5605024889288</v>
+        <v>911.4094046635305</v>
       </c>
       <c r="AB9" t="n">
-        <v>1165.142647703293</v>
+        <v>1247.0305560058</v>
       </c>
       <c r="AC9" t="n">
-        <v>1053.943068694466</v>
+        <v>1128.015709958984</v>
       </c>
       <c r="AD9" t="n">
-        <v>851560.5024889288</v>
+        <v>911409.4046635305</v>
       </c>
       <c r="AE9" t="n">
-        <v>1165142.647703293</v>
+        <v>1247030.5560058</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.516520425664756e-06</v>
+        <v>2.845587142207587e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.18391927083333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1053943.068694466</v>
+        <v>1128015.709958984</v>
       </c>
     </row>
     <row r="10">
@@ -25868,28 +25868,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>854.7614542772656</v>
+        <v>914.6103564518673</v>
       </c>
       <c r="AB10" t="n">
-        <v>1169.522331156121</v>
+        <v>1251.410239458629</v>
       </c>
       <c r="AC10" t="n">
-        <v>1057.904761305481</v>
+        <v>1131.977402569999</v>
       </c>
       <c r="AD10" t="n">
-        <v>854761.4542772656</v>
+        <v>914610.3564518674</v>
       </c>
       <c r="AE10" t="n">
-        <v>1169522.331156121</v>
+        <v>1251410.239458629</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.516520425664756e-06</v>
+        <v>2.845587142207587e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.18391927083333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1057904.761305481</v>
+        <v>1131977.402569999</v>
       </c>
     </row>
   </sheetData>
@@ -26165,28 +26165,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.5147328453448</v>
+        <v>601.4654913873864</v>
       </c>
       <c r="AB2" t="n">
-        <v>735.4513709554016</v>
+        <v>822.9516201009718</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.2609243238994</v>
+        <v>744.4102724983873</v>
       </c>
       <c r="AD2" t="n">
-        <v>537514.7328453448</v>
+        <v>601465.4913873863</v>
       </c>
       <c r="AE2" t="n">
-        <v>735451.3709554016</v>
+        <v>822951.6201009718</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.471509066583676e-06</v>
+        <v>3.68013250339187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.486328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>665260.9243238994</v>
+        <v>744410.2724983873</v>
       </c>
     </row>
   </sheetData>
@@ -26462,28 +26462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1150.114613815714</v>
+        <v>1225.812242636114</v>
       </c>
       <c r="AB2" t="n">
-        <v>1573.637554098409</v>
+        <v>1677.210389394171</v>
       </c>
       <c r="AC2" t="n">
-        <v>1423.451794549435</v>
+        <v>1517.139783809957</v>
       </c>
       <c r="AD2" t="n">
-        <v>1150114.613815714</v>
+        <v>1225812.242636114</v>
       </c>
       <c r="AE2" t="n">
-        <v>1573637.554098409</v>
+        <v>1677210.389394171</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.240764523911978e-06</v>
+        <v>2.555085859513039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.70930989583333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1423451.794549435</v>
+        <v>1517139.783809957</v>
       </c>
     </row>
     <row r="3">
@@ -26568,28 +26568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>764.2550559651515</v>
+        <v>818.3248803454171</v>
       </c>
       <c r="AB3" t="n">
-        <v>1045.687484124995</v>
+        <v>1119.668203234374</v>
       </c>
       <c r="AC3" t="n">
-        <v>945.8885382717066</v>
+        <v>1012.808641381877</v>
       </c>
       <c r="AD3" t="n">
-        <v>764255.0559651515</v>
+        <v>818324.8803454171</v>
       </c>
       <c r="AE3" t="n">
-        <v>1045687.484124995</v>
+        <v>1119668.203234374</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.543744338165754e-06</v>
+        <v>3.179007179149857e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.01888020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>945888.5382717066</v>
+        <v>1012808.641381877</v>
       </c>
     </row>
     <row r="4">
@@ -26674,28 +26674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>674.854340580221</v>
+        <v>729.0094163065072</v>
       </c>
       <c r="AB4" t="n">
-        <v>923.36548125413</v>
+        <v>997.4628450161579</v>
       </c>
       <c r="AC4" t="n">
-        <v>835.2407756748274</v>
+        <v>902.2663910357106</v>
       </c>
       <c r="AD4" t="n">
-        <v>674854.340580221</v>
+        <v>729009.4163065072</v>
       </c>
       <c r="AE4" t="n">
-        <v>923365.48125413</v>
+        <v>997462.8450161578</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.616902623773772e-06</v>
+        <v>3.329660826526805e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>835240.7756748274</v>
+        <v>902266.3910357106</v>
       </c>
     </row>
     <row r="5">
@@ -26780,28 +26780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>677.1220964503384</v>
+        <v>731.2771721766245</v>
       </c>
       <c r="AB5" t="n">
-        <v>926.4683248819525</v>
+        <v>1000.56568864398</v>
       </c>
       <c r="AC5" t="n">
-        <v>838.047488261679</v>
+        <v>905.0731036225621</v>
       </c>
       <c r="AD5" t="n">
-        <v>677122.0964503384</v>
+        <v>731277.1721766245</v>
       </c>
       <c r="AE5" t="n">
-        <v>926468.3248819525</v>
+        <v>1000565.68864398</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.618574813159098e-06</v>
+        <v>3.33310433846685e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.50944010416667</v>
       </c>
       <c r="AH5" t="n">
-        <v>838047.488261679</v>
+        <v>905073.1036225621</v>
       </c>
     </row>
   </sheetData>
@@ -27077,28 +27077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1591.494255387817</v>
+        <v>1681.414121817413</v>
       </c>
       <c r="AB2" t="n">
-        <v>2177.552651992862</v>
+        <v>2300.584980226366</v>
       </c>
       <c r="AC2" t="n">
-        <v>1969.730083101004</v>
+        <v>2081.020378604861</v>
       </c>
       <c r="AD2" t="n">
-        <v>1591494.255387817</v>
+        <v>1681414.121817413</v>
       </c>
       <c r="AE2" t="n">
-        <v>2177552.651992862</v>
+        <v>2300584.980226366</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060561119488625e-06</v>
+        <v>2.101166839505473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1969730.083101004</v>
+        <v>2081020.378604861</v>
       </c>
     </row>
     <row r="3">
@@ -27183,28 +27183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>973.8619970076406</v>
+        <v>1041.429840980282</v>
       </c>
       <c r="AB3" t="n">
-        <v>1332.480948064933</v>
+        <v>1424.930253071196</v>
       </c>
       <c r="AC3" t="n">
-        <v>1205.310836530371</v>
+        <v>1288.936909620252</v>
       </c>
       <c r="AD3" t="n">
-        <v>973861.9970076407</v>
+        <v>1041429.840980282</v>
       </c>
       <c r="AE3" t="n">
-        <v>1332480.948064933</v>
+        <v>1424930.253071196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.400262669715722e-06</v>
+        <v>2.774178153563393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.69596354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1205310.836530371</v>
+        <v>1288936.909620252</v>
       </c>
     </row>
     <row r="4">
@@ -27289,28 +27289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>811.8965247086143</v>
+        <v>879.379027826684</v>
       </c>
       <c r="AB4" t="n">
-        <v>1110.872643453065</v>
+        <v>1203.205181337131</v>
       </c>
       <c r="AC4" t="n">
-        <v>1004.852517481451</v>
+        <v>1088.372967539393</v>
       </c>
       <c r="AD4" t="n">
-        <v>811896.5247086142</v>
+        <v>879379.0278266841</v>
       </c>
       <c r="AE4" t="n">
-        <v>1110872.643453065</v>
+        <v>1203205.181337131</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.525537678611674e-06</v>
+        <v>3.022371010791507e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.73567708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1004852.517481451</v>
+        <v>1088372.967539393</v>
       </c>
     </row>
     <row r="5">
@@ -27395,28 +27395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>741.1499290217565</v>
+        <v>797.3712143196036</v>
       </c>
       <c r="AB5" t="n">
-        <v>1014.074030114782</v>
+        <v>1090.998472967352</v>
       </c>
       <c r="AC5" t="n">
-        <v>917.2922279424668</v>
+        <v>986.8751099333213</v>
       </c>
       <c r="AD5" t="n">
-        <v>741149.9290217565</v>
+        <v>797371.2143196036</v>
       </c>
       <c r="AE5" t="n">
-        <v>1014074.030114782</v>
+        <v>1090998.472967352</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.577861377106369e-06</v>
+        <v>3.126033890918911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.37923177083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>917292.2279424667</v>
+        <v>986875.1099333212</v>
       </c>
     </row>
     <row r="6">
@@ -27501,28 +27501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>733.8235505631861</v>
+        <v>790.0448358610334</v>
       </c>
       <c r="AB6" t="n">
-        <v>1004.04975589076</v>
+        <v>1080.97419874333</v>
       </c>
       <c r="AC6" t="n">
-        <v>908.2246563812281</v>
+        <v>977.8075383720827</v>
       </c>
       <c r="AD6" t="n">
-        <v>733823.5505631862</v>
+        <v>790044.8358610334</v>
       </c>
       <c r="AE6" t="n">
-        <v>1004049.75589076</v>
+        <v>1080974.19874333</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.586112421868994e-06</v>
+        <v>3.142380729708232e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>908224.6563812281</v>
+        <v>977807.5383720828</v>
       </c>
     </row>
     <row r="7">
@@ -27607,28 +27607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>737.8541834547194</v>
+        <v>794.0754687525667</v>
       </c>
       <c r="AB7" t="n">
-        <v>1009.564645631929</v>
+        <v>1086.4890884845</v>
       </c>
       <c r="AC7" t="n">
-        <v>913.2132127856963</v>
+        <v>982.7960947765513</v>
       </c>
       <c r="AD7" t="n">
-        <v>737854.1834547194</v>
+        <v>794075.4687525667</v>
       </c>
       <c r="AE7" t="n">
-        <v>1009564.645631929</v>
+        <v>1086489.0884845</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.586112421868994e-06</v>
+        <v>3.142380729708232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>913213.2127856964</v>
+        <v>982796.0947765512</v>
       </c>
     </row>
   </sheetData>
